--- a/analysis/pre_gemini_data/Participant130/task_hard.xlsx
+++ b/analysis/pre_gemini_data/Participant130/task_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,242 +422,238 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>assign1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>conditionalbody</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>conditionalbody1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>conditionalstatemnet2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>conditionalstatment</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>extrenal3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>loop1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>loop2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>loopbody2</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methocall8</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methoccall6</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>methodca;ll7</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>parameter</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>paramter2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>vairable1</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>vairavle1</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>vairbals2</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>vairbla3</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>variable5</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>variable7</t>
         </is>
@@ -752,16 +736,16 @@
         <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
         <v>22</v>
@@ -776,16 +760,16 @@
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X3" t="n">
         <v>6</v>
@@ -801,10 +785,10 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -813,13 +797,13 @@
         <v>6</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -840,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="AR3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
         <v>1</v>
@@ -850,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -876,16 +860,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L4" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M4" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N4" t="n">
         <v>33</v>
@@ -900,16 +884,16 @@
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X4" t="n">
         <v>8</v>
@@ -925,10 +909,10 @@
         <v>35</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>3</v>
@@ -937,13 +921,13 @@
         <v>7</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>428</v>
+        <v>223</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
@@ -964,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS4" t="n">
         <v>2</v>
@@ -974,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="AV4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1000,16 +984,16 @@
         <v>9201.51</v>
       </c>
       <c r="J5" t="n">
-        <v>90075.50999999999</v>
+        <v>88156.2</v>
       </c>
       <c r="K5" t="n">
-        <v>10261</v>
+        <v>9075.84</v>
       </c>
       <c r="L5" t="n">
-        <v>46202.66</v>
+        <v>44600.34</v>
       </c>
       <c r="M5" t="n">
-        <v>18120.28</v>
+        <v>16935.12</v>
       </c>
       <c r="N5" t="n">
         <v>13605.95</v>
@@ -1020,20 +1004,20 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>110688.59</v>
+        <v>110688.6</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>9411.209999999999</v>
+        <v>9193.700000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>16144.8</v>
+        <v>15911.19</v>
       </c>
       <c r="V5" t="n">
-        <v>6840.14</v>
+        <v>6022.63</v>
       </c>
       <c r="W5" t="n">
-        <v>31859.77</v>
+        <v>30674.6</v>
       </c>
       <c r="X5" t="n">
         <v>2586.08</v>
@@ -1049,10 +1033,10 @@
         <v>15785.33</v>
       </c>
       <c r="AC5" t="n">
-        <v>500.74</v>
+        <v>267.14</v>
       </c>
       <c r="AD5" t="n">
-        <v>11178.48</v>
+        <v>10143.46</v>
       </c>
       <c r="AE5" t="n">
         <v>1017.7</v>
@@ -1061,13 +1045,13 @@
         <v>3253.38</v>
       </c>
       <c r="AG5" t="n">
-        <v>15607.32</v>
+        <v>15290.32</v>
       </c>
       <c r="AH5" t="n">
         <v>6199.35</v>
       </c>
       <c r="AI5" t="n">
-        <v>142357.63</v>
+        <v>81012.67999999999</v>
       </c>
       <c r="AJ5" t="n">
         <v>9301.48</v>
@@ -1088,7 +1072,7 @@
         <v>2285.67</v>
       </c>
       <c r="AR5" t="n">
-        <v>9677.360000000001</v>
+        <v>8642.34</v>
       </c>
       <c r="AS5" t="n">
         <v>817.52</v>
@@ -1098,7 +1082,7 @@
         <v>1101.19</v>
       </c>
       <c r="AV5" t="n">
-        <v>3002.7</v>
+        <v>2185.18</v>
       </c>
     </row>
     <row r="6">
@@ -1109,37 +1093,37 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1.51</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
-        <v>14.74</v>
+        <v>26.4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.68</v>
+        <v>2.72</v>
       </c>
       <c r="L6" t="n">
-        <v>7.56</v>
+        <v>13.36</v>
       </c>
       <c r="M6" t="n">
-        <v>2.97</v>
+        <v>5.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.23</v>
+        <v>4.08</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1148,81 +1132,81 @@
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>1.54</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.64</v>
+        <v>4.77</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>5.22</v>
+        <v>9.19</v>
       </c>
       <c r="X6" t="n">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.58</v>
+        <v>4.73</v>
       </c>
       <c r="AC6" t="n">
         <v>0.08</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.83</v>
+        <v>3.04</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.53</v>
+        <v>0.97</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.56</v>
+        <v>4.58</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="AI6" t="n">
-        <v>23.3</v>
+        <v>24.26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.52</v>
+        <v>2.79</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.63</v>
+        <v>2.98</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.53</v>
+        <v>0.97</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="n">
-        <v>0.37</v>
+        <v>0.68</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.58</v>
+        <v>2.59</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7">
@@ -1248,16 +1232,16 @@
         <v>460.08</v>
       </c>
       <c r="J7" t="n">
-        <v>354.63</v>
+        <v>355.47</v>
       </c>
       <c r="K7" t="n">
-        <v>410.44</v>
+        <v>412.54</v>
       </c>
       <c r="L7" t="n">
-        <v>342.24</v>
+        <v>343.08</v>
       </c>
       <c r="M7" t="n">
-        <v>431.44</v>
+        <v>434.23</v>
       </c>
       <c r="N7" t="n">
         <v>412.3</v>
@@ -1272,16 +1256,16 @@
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>522.85</v>
+        <v>540.8099999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>384.4</v>
+        <v>388.08</v>
       </c>
       <c r="V7" t="n">
-        <v>488.58</v>
+        <v>463.28</v>
       </c>
       <c r="W7" t="n">
-        <v>366.2</v>
+        <v>365.17</v>
       </c>
       <c r="X7" t="n">
         <v>323.26</v>
@@ -1297,10 +1281,10 @@
         <v>451.01</v>
       </c>
       <c r="AC7" t="n">
-        <v>250.37</v>
+        <v>267.14</v>
       </c>
       <c r="AD7" t="n">
-        <v>486.02</v>
+        <v>483.02</v>
       </c>
       <c r="AE7" t="n">
         <v>339.23</v>
@@ -1309,13 +1293,13 @@
         <v>464.77</v>
       </c>
       <c r="AG7" t="n">
-        <v>487.73</v>
+        <v>493.24</v>
       </c>
       <c r="AH7" t="n">
         <v>516.61</v>
       </c>
       <c r="AI7" t="n">
-        <v>332.61</v>
+        <v>363.29</v>
       </c>
       <c r="AJ7" t="n">
         <v>465.07</v>
@@ -1336,7 +1320,7 @@
         <v>285.71</v>
       </c>
       <c r="AR7" t="n">
-        <v>569.26</v>
+        <v>576.16</v>
       </c>
       <c r="AS7" t="n">
         <v>408.76</v>
@@ -1346,7 +1330,7 @@
         <v>367.06</v>
       </c>
       <c r="AV7" t="n">
-        <v>428.96</v>
+        <v>364.2</v>
       </c>
     </row>
     <row r="8">
@@ -1523,106 +1507,6 @@
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
